--- a/GMLA loading analysis/PMsystem_PRweb/prweb_pmsystem_weighted.xlsx
+++ b/GMLA loading analysis/PMsystem_PRweb/prweb_pmsystem_weighted.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangcooper\Documents\Python\Projects\GMLA loading analysis\PMsystem_PRweb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AEA8F0-D6D1-4A41-8528-277E6629AD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -311,12 +317,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -324,8 +330,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -364,22 +377,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -421,7 +445,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -453,9 +477,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -487,6 +529,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -662,14 +722,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -740,8 +806,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -751,8 +817,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
@@ -769,8 +835,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
@@ -787,8 +853,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
@@ -805,8 +871,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
@@ -814,8 +880,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
@@ -826,8 +892,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
@@ -835,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -849,8 +915,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -866,8 +932,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
@@ -881,8 +947,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
@@ -896,8 +962,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
@@ -908,8 +974,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
@@ -923,8 +989,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
@@ -938,8 +1004,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
@@ -956,8 +1022,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
@@ -974,8 +1040,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>46</v>
       </c>
@@ -992,8 +1058,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
@@ -1010,8 +1076,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="1"/>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>48</v>
       </c>
@@ -1028,8 +1094,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="1"/>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
         <v>49</v>
       </c>
@@ -1046,8 +1112,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
@@ -1061,8 +1127,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>51</v>
       </c>
@@ -1079,8 +1145,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>52</v>
       </c>
@@ -1097,8 +1163,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
         <v>53</v>
       </c>
@@ -1115,8 +1181,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="1"/>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1124,8 +1190,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1141,8 +1207,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
@@ -1156,8 +1222,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="1"/>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
@@ -1171,8 +1237,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1186,8 +1252,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="1"/>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
         <v>59</v>
       </c>
@@ -1198,8 +1264,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="1"/>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
       <c r="B32" s="1" t="s">
         <v>60</v>
       </c>
@@ -1216,8 +1282,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
-      <c r="A33" s="1"/>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
         <v>61</v>
       </c>
@@ -1231,8 +1297,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
-      <c r="A34" s="1"/>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
       <c r="B34" s="1" t="s">
         <v>62</v>
       </c>
@@ -1240,8 +1306,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
-      <c r="A35" s="1"/>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
         <v>63</v>
       </c>
@@ -1258,8 +1324,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
-      <c r="A36" s="1"/>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
         <v>64</v>
       </c>
@@ -1273,8 +1339,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
-      <c r="A37" s="1"/>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
         <v>65</v>
       </c>
@@ -1282,8 +1348,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
-      <c r="A38" s="1"/>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
         <v>66</v>
       </c>
@@ -1291,8 +1357,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
-      <c r="A39" s="1"/>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
         <v>67</v>
       </c>
@@ -1309,8 +1375,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
-      <c r="A40" s="1"/>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
         <v>68</v>
       </c>
@@ -1327,8 +1393,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
-      <c r="A41" s="1"/>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
         <v>69</v>
       </c>
@@ -1342,8 +1408,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
-      <c r="A42" s="1"/>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
         <v>70</v>
       </c>
@@ -1357,8 +1423,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
-      <c r="A43" s="1"/>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
         <v>71</v>
       </c>
@@ -1372,8 +1438,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
-      <c r="A44" s="1"/>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
         <v>72</v>
       </c>
@@ -1381,8 +1447,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
-      <c r="A45" s="1"/>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
         <v>73</v>
       </c>
@@ -1390,8 +1456,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1410,8 +1476,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
-      <c r="A47" s="1"/>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
         <v>75</v>
       </c>
@@ -1428,8 +1494,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
-      <c r="A48" s="1"/>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
         <v>76</v>
       </c>
@@ -1446,8 +1512,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
-      <c r="A49" s="1"/>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
         <v>77</v>
       </c>
@@ -1458,8 +1524,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
-      <c r="A50" s="1"/>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
         <v>78</v>
       </c>
@@ -1467,8 +1533,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
-      <c r="A51" s="1"/>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
         <v>79</v>
       </c>
@@ -1476,8 +1542,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
-      <c r="A52" s="1"/>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
         <v>80</v>
       </c>
@@ -1485,8 +1551,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -1496,8 +1562,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
-      <c r="A54" s="1"/>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
       <c r="B54" s="1" t="s">
         <v>82</v>
       </c>
@@ -1505,8 +1571,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
-      <c r="A55" s="1"/>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
       <c r="B55" s="1" t="s">
         <v>83</v>
       </c>
@@ -1514,8 +1580,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
-      <c r="A56" s="1"/>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
         <v>84</v>
       </c>
@@ -1529,8 +1595,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
-      <c r="A57" s="1"/>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
         <v>85</v>
       </c>
@@ -1538,8 +1604,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
-      <c r="A58" s="1"/>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
         <v>86</v>
       </c>
@@ -1547,8 +1613,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
-      <c r="A59" s="1"/>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
         <v>87</v>
       </c>
@@ -1556,8 +1622,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
-      <c r="A60" s="1"/>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
         <v>88</v>
       </c>
@@ -1571,8 +1637,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -1591,8 +1657,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
-      <c r="A62" s="1"/>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
       <c r="B62" s="1" t="s">
         <v>90</v>
       </c>
@@ -1609,8 +1675,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
-      <c r="A63" s="1"/>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63" s="2"/>
       <c r="B63" s="1" t="s">
         <v>91</v>
       </c>
@@ -1627,8 +1693,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
-      <c r="A64" s="1"/>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
         <v>92</v>
       </c>
@@ -1645,8 +1711,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
-      <c r="A65" s="1"/>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
         <v>93</v>
       </c>
@@ -1660,8 +1726,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
-      <c r="A66" s="1"/>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66" s="2"/>
       <c r="B66" s="1" t="s">
         <v>94</v>
       </c>
@@ -1675,8 +1741,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
-      <c r="A67" s="1"/>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
       <c r="B67" s="1" t="s">
         <v>95</v>
       </c>
@@ -1690,8 +1756,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
-      <c r="A68" s="1"/>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68" s="2"/>
       <c r="B68" s="1" t="s">
         <v>96</v>
       </c>
@@ -1707,13 +1773,14 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A61:A68"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A10:A26"/>
     <mergeCell ref="A27:A45"/>
     <mergeCell ref="A46:A52"/>
     <mergeCell ref="A53:A60"/>
-    <mergeCell ref="A61:A68"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>